--- a/code/vocab_csv/pd.xlsx
+++ b/code/vocab_csv/pd.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="847">
   <si>
     <t>Term</t>
   </si>
@@ -270,6 +270,9 @@
     <t>Data that has been obtained through inferences of other data</t>
   </si>
   <si>
+    <t>dpv:DerivedData</t>
+  </si>
+  <si>
     <t>ObservedData</t>
   </si>
   <si>
@@ -285,7 +288,7 @@
     <t>Generated Data</t>
   </si>
   <si>
-    <t>Data that has been obtained through generation or creation as a source</t>
+    <t>Data that is generated or brought into existence without relation to existing data i.e. it is not derived or inferred from other data</t>
   </si>
   <si>
     <t>CollectedPersonalData</t>
@@ -366,7 +369,7 @@
     <t>Personal Data that is obtained through inference from other data</t>
   </si>
   <si>
-    <t>dpv:DerivedPersonalData,dpv:GeneratedPersonalData</t>
+    <t>dpv:DerivedPersonalData,dpv:InferredData</t>
   </si>
   <si>
     <t>Inferred Data is derived data generated from existing data, but which did not originally exist within it, e.g. inferring demographics from browsing history.</t>
@@ -381,7 +384,7 @@
     <t>Personal Data that has been collected through observation of the Data Subject(s)</t>
   </si>
   <si>
-    <t>dpv:PersonalData,dpv:ObservedData</t>
+    <t>dpv:CollectedPersonalData,dpv:ObservedData</t>
   </si>
   <si>
     <t>Georg P. Krog</t>
@@ -394,9 +397,6 @@
   </si>
   <si>
     <t>Personal Data that is generated or brought into existence without relation to existing data i.e. it is not derived or inferred from other data</t>
-  </si>
-  <si>
-    <t>dpv:PersonalData,dpv:InferredData</t>
   </si>
   <si>
     <t>Generated Data is used to indicate data that is produced and is not derived or inferred from other data</t>
@@ -439,6 +439,9 @@
     <t>Personal data that is considered 'sensitive' in terms of privacy and/or impact, and therefore requires additional considerations and/or protection</t>
   </si>
   <si>
+    <t>dpv:PersonalData,dpv:SensitiveData</t>
+  </si>
+  <si>
     <t>Sensitivity' is a matter of context, and may be defined within legal frameworks. For GDPR, Special categories of personal data are considered a subset of sensitive data. To illustrate the difference between the two, consider the situation where Location data is collected, and which is considered 'sensitive' but not 'special'. As a probable rule, sensitive data require additional considerations whereas special category data requires additional legal basis / justifications.</t>
   </si>
   <si>
@@ -491,6 +494,9 @@
   </si>
   <si>
     <t>Data protected by Intellectual Property rights and regulations</t>
+  </si>
+  <si>
+    <t>dpv:ConfidentialData</t>
   </si>
   <si>
     <t>SensitiveData</t>
@@ -4108,7 +4114,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>26</v>
@@ -4143,16 +4149,16 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>26</v>
@@ -4187,13 +4193,13 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>25</v>
@@ -4231,16 +4237,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>26</v>
@@ -4249,7 +4255,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="13">
@@ -4265,7 +4271,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -4283,16 +4289,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>26</v>
@@ -4301,7 +4307,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="13">
@@ -4331,30 +4337,30 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K26" s="13">
         <v>43592.0</v>
@@ -4366,7 +4372,7 @@
         <v>19</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O26" s="14" t="s">
         <v>21</v>
@@ -4387,16 +4393,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>26</v>
@@ -4405,7 +4411,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="13">
@@ -4439,16 +4445,16 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>26</v>
@@ -4468,7 +4474,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -4487,16 +4493,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>26</v>
@@ -4521,7 +4527,7 @@
         <v>20</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -4607,7 +4613,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>26</v>
@@ -4616,7 +4622,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="13">
@@ -4648,16 +4654,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>26</v>
@@ -4666,10 +4672,10 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
       <c r="I34" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K34" s="13">
         <v>43592.0</v>
@@ -4681,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="14" t="s">
         <v>21</v>
@@ -4702,13 +4708,13 @@
     </row>
     <row r="35">
       <c r="A35" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>25</v>
@@ -4721,7 +4727,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K35" s="21">
         <v>45336.0</v>
@@ -4748,13 +4754,13 @@
     </row>
     <row r="36">
       <c r="A36" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
@@ -4767,7 +4773,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K36" s="21">
         <v>45336.0</v>
@@ -4794,16 +4800,16 @@
     </row>
     <row r="37">
       <c r="A37" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>26</v>
@@ -4813,7 +4819,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K37" s="21">
         <v>45336.0</v>
@@ -4840,13 +4846,13 @@
     </row>
     <row r="38">
       <c r="A38" s="32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>25</v>
@@ -4884,16 +4890,16 @@
     </row>
     <row r="39">
       <c r="A39" s="32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>26</v>
@@ -4903,7 +4909,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K39" s="21">
         <v>45336.0</v>
@@ -4930,16 +4936,16 @@
     </row>
     <row r="40">
       <c r="A40" s="32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>26</v>
@@ -4949,7 +4955,7 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K40" s="21">
         <v>45336.0</v>
@@ -4979,7 +4985,7 @@
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="36" t="s">
@@ -4999,7 +5005,7 @@
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
       <c r="M42" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N42" s="38"/>
       <c r="O42" s="38"/>
@@ -5019,11 +5025,11 @@
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>50</v>
@@ -5039,7 +5045,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
       <c r="M43" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N43" s="38"/>
       <c r="O43" s="38"/>
@@ -7615,13 +7621,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7653,13 +7659,13 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -7668,7 +7674,7 @@
         <v>50</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7703,13 +7709,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>17</v>
@@ -7718,7 +7724,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -10780,13 +10786,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="9" t="s">
@@ -10797,7 +10803,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -10807,10 +10813,10 @@
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -10828,13 +10834,13 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="9" t="s">
@@ -10842,12 +10848,12 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -10857,10 +10863,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -10878,13 +10884,13 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="9" t="s">
@@ -10895,7 +10901,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -10905,10 +10911,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -10926,13 +10932,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9" t="s">
@@ -10954,7 +10960,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -10972,13 +10978,13 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="9" t="s">
@@ -10989,7 +10995,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K6" s="13">
         <v>43620.0</v>
@@ -10999,10 +11005,10 @@
         <v>19</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -11020,13 +11026,13 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
@@ -11048,7 +11054,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -11066,13 +11072,13 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="9" t="s">
@@ -11083,7 +11089,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -11093,10 +11099,10 @@
         <v>19</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -11114,13 +11120,13 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="9" t="s">
@@ -11131,7 +11137,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -11141,10 +11147,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15376,16 +15382,16 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>50</v>
@@ -15395,7 +15401,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K2" s="13">
         <v>43620.0</v>
@@ -15405,10 +15411,10 @@
         <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
@@ -15426,16 +15432,16 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>50</v>
@@ -15445,7 +15451,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K3" s="13">
         <v>43620.0</v>
@@ -15455,10 +15461,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -15476,16 +15482,16 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>50</v>
@@ -15495,7 +15501,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K4" s="13">
         <v>43620.0</v>
@@ -15505,10 +15511,10 @@
         <v>19</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -15526,16 +15532,16 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>50</v>
@@ -15545,7 +15551,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="13">
         <v>43620.0</v>
@@ -15555,10 +15561,10 @@
         <v>19</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -15576,16 +15582,16 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>50</v>
@@ -15606,7 +15612,7 @@
         <v>20</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -15624,16 +15630,16 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>50</v>
@@ -15654,7 +15660,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -15672,16 +15678,16 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>50</v>
@@ -15691,7 +15697,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K8" s="13">
         <v>43620.0</v>
@@ -15701,10 +15707,10 @@
         <v>19</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -15722,16 +15728,16 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>50</v>
@@ -15741,7 +15747,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K9" s="13">
         <v>43620.0</v>
@@ -15751,10 +15757,10 @@
         <v>19</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -15772,16 +15778,16 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>50</v>
@@ -15791,7 +15797,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="13">
         <v>43620.0</v>
@@ -15801,10 +15807,10 @@
         <v>19</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -15822,16 +15828,16 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>50</v>
@@ -15841,7 +15847,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K11" s="13">
         <v>43620.0</v>
@@ -15851,10 +15857,10 @@
         <v>19</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -15872,16 +15878,16 @@
     </row>
     <row r="12">
       <c r="A12" s="48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>50</v>
@@ -15891,7 +15897,7 @@
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
       <c r="J12" s="27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K12" s="50">
         <v>44139.0</v>
@@ -15901,10 +15907,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
@@ -15922,16 +15928,16 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>50</v>
@@ -15941,7 +15947,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K13" s="13">
         <v>43620.0</v>
@@ -15951,10 +15957,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
@@ -15972,28 +15978,28 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K14" s="13">
         <v>43620.0</v>
@@ -16003,10 +16009,10 @@
         <v>19</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -16024,16 +16030,16 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>50</v>
@@ -16054,7 +16060,7 @@
         <v>20</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -16072,16 +16078,16 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>50</v>
@@ -16102,7 +16108,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
@@ -16120,16 +16126,16 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>50</v>
@@ -16139,7 +16145,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K17" s="13">
         <v>43620.0</v>
@@ -16149,10 +16155,10 @@
         <v>19</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
@@ -16170,16 +16176,16 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>50</v>
@@ -16189,7 +16195,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K18" s="13">
         <v>43620.0</v>
@@ -16199,10 +16205,10 @@
         <v>19</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
@@ -16220,16 +16226,16 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>50</v>
@@ -16250,7 +16256,7 @@
         <v>20</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -16268,28 +16274,28 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K20" s="13">
         <v>43620.0</v>
@@ -16299,10 +16305,10 @@
         <v>19</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -16320,16 +16326,16 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>50</v>
@@ -16339,7 +16345,7 @@
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
       <c r="J21" s="27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K21" s="50">
         <v>44139.0</v>
@@ -16349,10 +16355,10 @@
         <v>19</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O21" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P21" s="49"/>
       <c r="Q21" s="49"/>
@@ -16370,16 +16376,16 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>50</v>
@@ -16389,7 +16395,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K22" s="13">
         <v>43620.0</v>
@@ -16399,10 +16405,10 @@
         <v>19</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -16420,16 +16426,16 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>50</v>
@@ -16439,7 +16445,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K23" s="13">
         <v>43620.0</v>
@@ -16449,10 +16455,10 @@
         <v>19</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
@@ -16470,16 +16476,16 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>50</v>
@@ -16489,7 +16495,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K24" s="13">
         <v>43620.0</v>
@@ -16499,10 +16505,10 @@
         <v>19</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -16520,16 +16526,16 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>50</v>
@@ -16539,7 +16545,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="13">
         <v>43620.0</v>
@@ -16549,10 +16555,10 @@
         <v>19</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -16570,28 +16576,28 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K26" s="13">
         <v>43620.0</v>
@@ -16601,10 +16607,10 @@
         <v>19</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -16622,16 +16628,16 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>50</v>
@@ -16641,7 +16647,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K27" s="13">
         <v>43620.0</v>
@@ -16651,10 +16657,10 @@
         <v>19</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
@@ -16672,28 +16678,28 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K28" s="13">
         <v>43620.0</v>
@@ -16703,10 +16709,10 @@
         <v>19</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -16724,16 +16730,16 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>50</v>
@@ -16743,7 +16749,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="10"/>
       <c r="J29" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K29" s="13">
         <v>43620.0</v>
@@ -16753,10 +16759,10 @@
         <v>19</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -16774,16 +16780,16 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>50</v>
@@ -16793,7 +16799,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K30" s="13">
         <v>43620.0</v>
@@ -16803,10 +16809,10 @@
         <v>19</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -16824,16 +16830,16 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>50</v>
@@ -16843,7 +16849,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K31" s="13">
         <v>43620.0</v>
@@ -16853,10 +16859,10 @@
         <v>19</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -16874,16 +16880,16 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>50</v>
@@ -16893,7 +16899,7 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K32" s="13">
         <v>43620.0</v>
@@ -16903,10 +16909,10 @@
         <v>19</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -16924,16 +16930,16 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>50</v>
@@ -16943,7 +16949,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K33" s="13">
         <v>43620.0</v>
@@ -16953,10 +16959,10 @@
         <v>19</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -16974,16 +16980,16 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>50</v>
@@ -16993,7 +16999,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
       <c r="J34" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K34" s="13">
         <v>43620.0</v>
@@ -17003,10 +17009,10 @@
         <v>19</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -17024,16 +17030,16 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>50</v>
@@ -17043,7 +17049,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K35" s="13">
         <v>43620.0</v>
@@ -17053,10 +17059,10 @@
         <v>19</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
@@ -17074,16 +17080,16 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>50</v>
@@ -17093,7 +17099,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K36" s="13">
         <v>43620.0</v>
@@ -17103,10 +17109,10 @@
         <v>19</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
@@ -17124,28 +17130,28 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K37" s="13">
         <v>43620.0</v>
@@ -17155,10 +17161,10 @@
         <v>19</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
@@ -17176,16 +17182,16 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>50</v>
@@ -17195,7 +17201,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K38" s="13">
         <v>43620.0</v>
@@ -17205,10 +17211,10 @@
         <v>19</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -17226,16 +17232,16 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B39" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>50</v>
@@ -17245,7 +17251,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
       <c r="J39" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K39" s="13">
         <v>43620.0</v>
@@ -17255,10 +17261,10 @@
         <v>19</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
@@ -17276,16 +17282,16 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>50</v>
@@ -17303,7 +17309,7 @@
         <v>19</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O40" s="10"/>
       <c r="P40" s="12"/>
@@ -17322,16 +17328,16 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>50</v>
@@ -17341,7 +17347,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K41" s="13">
         <v>43620.0</v>
@@ -17351,10 +17357,10 @@
         <v>19</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
@@ -17372,16 +17378,16 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>50</v>
@@ -17402,7 +17408,7 @@
         <v>20</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -17420,16 +17426,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>50</v>
@@ -17439,7 +17445,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K43" s="13">
         <v>43620.0</v>
@@ -17449,10 +17455,10 @@
         <v>19</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -17470,16 +17476,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>50</v>
@@ -17489,7 +17495,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K44" s="13">
         <v>43620.0</v>
@@ -17499,10 +17505,10 @@
         <v>19</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -17520,16 +17526,16 @@
     </row>
     <row r="45">
       <c r="A45" s="53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>50</v>
@@ -17539,7 +17545,7 @@
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
       <c r="J45" s="27" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K45" s="50">
         <v>44139.0</v>
@@ -17549,10 +17555,10 @@
         <v>19</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O45" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P45" s="49"/>
       <c r="Q45" s="49"/>
@@ -17570,28 +17576,28 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
       <c r="J46" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K46" s="13">
         <v>43620.0</v>
@@ -17601,10 +17607,10 @@
         <v>19</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
@@ -17622,16 +17628,16 @@
     </row>
     <row r="47">
       <c r="A47" s="53" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>50</v>
@@ -17641,7 +17647,7 @@
       <c r="H47" s="49"/>
       <c r="I47" s="49"/>
       <c r="J47" s="27" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K47" s="50">
         <v>44139.0</v>
@@ -17651,10 +17657,10 @@
         <v>19</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O47" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P47" s="49"/>
       <c r="Q47" s="49"/>
@@ -17672,16 +17678,16 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B48" s="54" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>50</v>
@@ -17691,7 +17697,7 @@
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="27" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K48" s="50">
         <v>44139.0</v>
@@ -17701,10 +17707,10 @@
         <v>19</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O48" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P48" s="49"/>
       <c r="Q48" s="49"/>
@@ -17722,16 +17728,16 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>50</v>
@@ -17741,7 +17747,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
       <c r="J49" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K49" s="13">
         <v>43620.0</v>
@@ -17751,10 +17757,10 @@
         <v>19</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
@@ -17772,16 +17778,16 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>50</v>
@@ -17802,7 +17808,7 @@
         <v>20</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -17820,16 +17826,16 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>50</v>
@@ -17839,7 +17845,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K51" s="13">
         <v>43620.0</v>
@@ -17849,10 +17855,10 @@
         <v>19</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -17870,16 +17876,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>50</v>
@@ -17889,7 +17895,7 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
       <c r="J52" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K52" s="13">
         <v>43620.0</v>
@@ -17899,10 +17905,10 @@
         <v>19</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
@@ -17920,16 +17926,16 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>50</v>
@@ -17939,7 +17945,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
       <c r="J53" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K53" s="13">
         <v>43620.0</v>
@@ -17949,10 +17955,10 @@
         <v>19</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
@@ -17970,16 +17976,16 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>50</v>
@@ -17989,7 +17995,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
       <c r="J54" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K54" s="13">
         <v>43620.0</v>
@@ -17999,10 +18005,10 @@
         <v>19</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
@@ -18020,16 +18026,16 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>50</v>
@@ -18039,7 +18045,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
       <c r="J55" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K55" s="13">
         <v>43620.0</v>
@@ -18049,10 +18055,10 @@
         <v>19</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
@@ -18070,16 +18076,16 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>50</v>
@@ -18089,7 +18095,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K56" s="13">
         <v>43620.0</v>
@@ -18099,10 +18105,10 @@
         <v>19</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
@@ -18120,16 +18126,16 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>50</v>
@@ -18150,7 +18156,7 @@
         <v>20</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -18168,16 +18174,16 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>50</v>
@@ -18198,7 +18204,7 @@
         <v>20</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
@@ -18216,16 +18222,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>389</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>50</v>
@@ -18246,7 +18252,7 @@
         <v>20</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -18264,16 +18270,16 @@
     </row>
     <row r="60">
       <c r="A60" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>50</v>
@@ -18283,7 +18289,7 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
       <c r="J60" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K60" s="13">
         <v>43620.0</v>
@@ -18293,10 +18299,10 @@
         <v>19</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -18314,16 +18320,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>50</v>
@@ -18344,7 +18350,7 @@
         <v>20</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -18362,16 +18368,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>400</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>50</v>
@@ -18392,7 +18398,7 @@
         <v>20</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -18410,16 +18416,16 @@
     </row>
     <row r="63">
       <c r="A63" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>50</v>
@@ -18429,7 +18435,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
       <c r="J63" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K63" s="13">
         <v>43620.0</v>
@@ -18439,10 +18445,10 @@
         <v>19</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -18460,16 +18466,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>50</v>
@@ -18479,7 +18485,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
       <c r="J64" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K64" s="13">
         <v>43620.0</v>
@@ -18489,10 +18495,10 @@
         <v>19</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
@@ -18510,16 +18516,16 @@
     </row>
     <row r="65">
       <c r="A65" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>50</v>
@@ -18529,7 +18535,7 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K65" s="13">
         <v>43620.0</v>
@@ -18539,10 +18545,10 @@
         <v>19</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
@@ -18560,16 +18566,16 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>50</v>
@@ -18590,7 +18596,7 @@
         <v>20</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
@@ -18608,16 +18614,16 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>50</v>
@@ -18627,7 +18633,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
       <c r="J67" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K67" s="13">
         <v>43620.0</v>
@@ -18637,10 +18643,10 @@
         <v>19</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
@@ -18658,16 +18664,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>50</v>
@@ -18677,7 +18683,7 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K68" s="13">
         <v>43620.0</v>
@@ -18687,10 +18693,10 @@
         <v>19</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -18708,16 +18714,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>50</v>
@@ -18727,7 +18733,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K69" s="13">
         <v>43620.0</v>
@@ -18737,10 +18743,10 @@
         <v>19</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -18758,16 +18764,16 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>50</v>
@@ -18777,7 +18783,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
       <c r="J70" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K70" s="13">
         <v>43620.0</v>
@@ -18787,10 +18793,10 @@
         <v>19</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P70" s="12"/>
       <c r="Q70" s="12"/>
@@ -18808,16 +18814,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>50</v>
@@ -18827,7 +18833,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
       <c r="J71" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K71" s="13">
         <v>43620.0</v>
@@ -18837,10 +18843,10 @@
         <v>19</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -18858,16 +18864,16 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B72" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>50</v>
@@ -18877,7 +18883,7 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
       <c r="J72" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K72" s="13">
         <v>43620.0</v>
@@ -18887,10 +18893,10 @@
         <v>19</v>
       </c>
       <c r="N72" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
@@ -18908,16 +18914,16 @@
     </row>
     <row r="73">
       <c r="A73" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>50</v>
@@ -18927,7 +18933,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
       <c r="J73" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K73" s="13">
         <v>43620.0</v>
@@ -18937,10 +18943,10 @@
         <v>19</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
@@ -18958,16 +18964,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>50</v>
@@ -18977,7 +18983,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
       <c r="J74" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K74" s="13">
         <v>43620.0</v>
@@ -18987,10 +18993,10 @@
         <v>19</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
@@ -19008,16 +19014,16 @@
     </row>
     <row r="75">
       <c r="A75" s="10" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>50</v>
@@ -19027,7 +19033,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
       <c r="J75" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K75" s="13">
         <v>43620.0</v>
@@ -19037,10 +19043,10 @@
         <v>19</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
@@ -19058,16 +19064,16 @@
     </row>
     <row r="76">
       <c r="A76" s="10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>50</v>
@@ -19077,7 +19083,7 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
       <c r="J76" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K76" s="13">
         <v>43620.0</v>
@@ -19087,10 +19093,10 @@
         <v>19</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
@@ -19108,16 +19114,16 @@
     </row>
     <row r="77">
       <c r="A77" s="10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>50</v>
@@ -19138,7 +19144,7 @@
         <v>20</v>
       </c>
       <c r="O77" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
@@ -19156,16 +19162,16 @@
     </row>
     <row r="78">
       <c r="A78" s="10" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>50</v>
@@ -19175,7 +19181,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K78" s="13">
         <v>43620.0</v>
@@ -19185,10 +19191,10 @@
         <v>19</v>
       </c>
       <c r="N78" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
@@ -19206,16 +19212,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>50</v>
@@ -19225,7 +19231,7 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
       <c r="J79" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K79" s="13">
         <v>43620.0</v>
@@ -19235,10 +19241,10 @@
         <v>19</v>
       </c>
       <c r="N79" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O79" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
@@ -19256,16 +19262,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>50</v>
@@ -19275,7 +19281,7 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
       <c r="J80" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K80" s="13">
         <v>43620.0</v>
@@ -19285,10 +19291,10 @@
         <v>19</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -19306,16 +19312,16 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>50</v>
@@ -19325,7 +19331,7 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
       <c r="J81" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K81" s="13">
         <v>43620.0</v>
@@ -19335,10 +19341,10 @@
         <v>19</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -19356,16 +19362,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>50</v>
@@ -19386,7 +19392,7 @@
         <v>20</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
@@ -19404,16 +19410,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>50</v>
@@ -19423,7 +19429,7 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
       <c r="J83" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K83" s="13">
         <v>43620.0</v>
@@ -19433,10 +19439,10 @@
         <v>19</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O83" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
@@ -19454,16 +19460,16 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>50</v>
@@ -19473,7 +19479,7 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
       <c r="J84" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K84" s="13">
         <v>43620.0</v>
@@ -19483,10 +19489,10 @@
         <v>19</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
@@ -19504,16 +19510,16 @@
     </row>
     <row r="85">
       <c r="A85" s="10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>50</v>
@@ -19523,7 +19529,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K85" s="13">
         <v>43620.0</v>
@@ -19533,10 +19539,10 @@
         <v>19</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -19554,16 +19560,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>50</v>
@@ -19573,7 +19579,7 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
       <c r="J86" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K86" s="13">
         <v>43620.0</v>
@@ -19583,10 +19589,10 @@
         <v>19</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -19604,28 +19610,28 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K87" s="13">
         <v>43620.0</v>
@@ -19635,10 +19641,10 @@
         <v>19</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
@@ -19656,16 +19662,16 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>50</v>
@@ -19675,7 +19681,7 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
       <c r="J88" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K88" s="13">
         <v>43620.0</v>
@@ -19685,10 +19691,10 @@
         <v>19</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
@@ -19706,16 +19712,16 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>50</v>
@@ -19725,7 +19731,7 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
       <c r="J89" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K89" s="13">
         <v>43620.0</v>
@@ -19735,10 +19741,10 @@
         <v>19</v>
       </c>
       <c r="N89" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
@@ -19756,16 +19762,16 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>50</v>
@@ -19775,7 +19781,7 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K90" s="13">
         <v>43620.0</v>
@@ -19785,10 +19791,10 @@
         <v>19</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O90" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
@@ -19806,16 +19812,16 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>50</v>
@@ -19825,7 +19831,7 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K91" s="13">
         <v>43620.0</v>
@@ -19835,10 +19841,10 @@
         <v>19</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O91" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
@@ -19856,16 +19862,16 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>50</v>
@@ -19886,7 +19892,7 @@
         <v>20</v>
       </c>
       <c r="O92" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P92" s="12"/>
       <c r="Q92" s="12"/>
@@ -19904,16 +19910,16 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>50</v>
@@ -19934,7 +19940,7 @@
         <v>20</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P93" s="12"/>
       <c r="Q93" s="12"/>
@@ -19952,16 +19958,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>50</v>
@@ -19971,7 +19977,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
       <c r="J94" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K94" s="13">
         <v>43620.0</v>
@@ -19981,10 +19987,10 @@
         <v>19</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P94" s="12"/>
       <c r="Q94" s="12"/>
@@ -20002,16 +20008,16 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>50</v>
@@ -20021,7 +20027,7 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
       <c r="J95" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K95" s="13">
         <v>43620.0</v>
@@ -20031,10 +20037,10 @@
         <v>19</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -20052,16 +20058,16 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>50</v>
@@ -20071,7 +20077,7 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
       <c r="J96" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K96" s="13">
         <v>43620.0</v>
@@ -20081,10 +20087,10 @@
         <v>19</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -20102,16 +20108,16 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>50</v>
@@ -20121,7 +20127,7 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
       <c r="J97" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K97" s="13">
         <v>43620.0</v>
@@ -20131,10 +20137,10 @@
         <v>19</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -20152,16 +20158,16 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>50</v>
@@ -20182,7 +20188,7 @@
         <v>20</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -20200,16 +20206,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>50</v>
@@ -20219,7 +20225,7 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
       <c r="J99" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K99" s="13">
         <v>43620.0</v>
@@ -20229,10 +20235,10 @@
         <v>19</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -20250,16 +20256,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>50</v>
@@ -20269,7 +20275,7 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
       <c r="J100" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K100" s="13">
         <v>43620.0</v>
@@ -20279,10 +20285,10 @@
         <v>19</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
@@ -20300,16 +20306,16 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>50</v>
@@ -20319,7 +20325,7 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
       <c r="J101" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K101" s="13">
         <v>43620.0</v>
@@ -20329,10 +20335,10 @@
         <v>19</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O101" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
@@ -20350,16 +20356,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>50</v>
@@ -20369,7 +20375,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
       <c r="J102" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K102" s="13">
         <v>43620.0</v>
@@ -20379,10 +20385,10 @@
         <v>19</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O102" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
@@ -20400,16 +20406,16 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>50</v>
@@ -20419,7 +20425,7 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
       <c r="J103" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K103" s="13">
         <v>43620.0</v>
@@ -20429,10 +20435,10 @@
         <v>19</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -20450,16 +20456,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>50</v>
@@ -20469,7 +20475,7 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
       <c r="J104" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K104" s="13">
         <v>43620.0</v>
@@ -20479,10 +20485,10 @@
         <v>19</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -20500,16 +20506,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E105" s="9" t="s">
         <v>50</v>
@@ -20519,7 +20525,7 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
       <c r="J105" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K105" s="13">
         <v>43620.0</v>
@@ -20531,10 +20537,10 @@
         <v>19</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O105" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
@@ -20552,16 +20558,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>50</v>
@@ -20571,7 +20577,7 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
       <c r="J106" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K106" s="13">
         <v>43620.0</v>
@@ -20581,10 +20587,10 @@
         <v>19</v>
       </c>
       <c r="N106" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O106" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
@@ -20602,16 +20608,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>50</v>
@@ -20621,7 +20627,7 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
       <c r="J107" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K107" s="13">
         <v>43620.0</v>
@@ -20631,10 +20637,10 @@
         <v>19</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O107" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -20652,28 +20658,28 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K108" s="13">
         <v>43620.0</v>
@@ -20683,10 +20689,10 @@
         <v>19</v>
       </c>
       <c r="N108" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O108" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
@@ -20704,16 +20710,16 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>50</v>
@@ -20723,7 +20729,7 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
       <c r="J109" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K109" s="13">
         <v>43620.0</v>
@@ -20733,10 +20739,10 @@
         <v>19</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O109" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
@@ -20754,28 +20760,28 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
       <c r="J110" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K110" s="13">
         <v>43620.0</v>
@@ -20785,10 +20791,10 @@
         <v>19</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O110" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
@@ -20806,16 +20812,16 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>50</v>
@@ -20825,7 +20831,7 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
       <c r="J111" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K111" s="13">
         <v>43620.0</v>
@@ -20835,10 +20841,10 @@
         <v>19</v>
       </c>
       <c r="N111" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O111" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
@@ -20856,16 +20862,16 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>50</v>
@@ -20875,7 +20881,7 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
       <c r="J112" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K112" s="13">
         <v>43620.0</v>
@@ -20885,10 +20891,10 @@
         <v>19</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O112" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
@@ -20906,16 +20912,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>50</v>
@@ -20925,7 +20931,7 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
       <c r="J113" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K113" s="13">
         <v>43620.0</v>
@@ -20935,10 +20941,10 @@
         <v>19</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O113" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
@@ -20956,16 +20962,16 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>50</v>
@@ -20975,7 +20981,7 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K114" s="13">
         <v>43620.0</v>
@@ -20985,10 +20991,10 @@
         <v>19</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
@@ -21006,16 +21012,16 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>50</v>
@@ -21025,7 +21031,7 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K115" s="13">
         <v>43620.0</v>
@@ -21035,10 +21041,10 @@
         <v>19</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O115" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
@@ -21056,16 +21062,16 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>50</v>
@@ -21084,7 +21090,7 @@
       </c>
       <c r="N116" s="12"/>
       <c r="O116" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
@@ -21102,28 +21108,28 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K117" s="13">
         <v>43620.0</v>
@@ -21133,10 +21139,10 @@
         <v>19</v>
       </c>
       <c r="N117" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
@@ -21154,16 +21160,16 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>50</v>
@@ -21173,7 +21179,7 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
       <c r="J118" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K118" s="13">
         <v>43620.0</v>
@@ -21183,10 +21189,10 @@
         <v>19</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
@@ -21204,16 +21210,16 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>50</v>
@@ -21223,7 +21229,7 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
       <c r="J119" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K119" s="13">
         <v>43620.0</v>
@@ -21233,10 +21239,10 @@
         <v>19</v>
       </c>
       <c r="N119" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
@@ -21254,16 +21260,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>50</v>
@@ -21273,7 +21279,7 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
       <c r="J120" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K120" s="13">
         <v>43620.0</v>
@@ -21283,10 +21289,10 @@
         <v>19</v>
       </c>
       <c r="N120" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
@@ -21304,16 +21310,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>50</v>
@@ -21323,7 +21329,7 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
       <c r="J121" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K121" s="13">
         <v>43620.0</v>
@@ -21333,10 +21339,10 @@
         <v>19</v>
       </c>
       <c r="N121" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
@@ -21354,16 +21360,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>50</v>
@@ -21384,7 +21390,7 @@
         <v>20</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P122" s="12"/>
       <c r="Q122" s="12"/>
@@ -21402,16 +21408,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>50</v>
@@ -21421,7 +21427,7 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K123" s="13">
         <v>43620.0</v>
@@ -21431,10 +21437,10 @@
         <v>19</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O123" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
@@ -21452,16 +21458,16 @@
     </row>
     <row r="124">
       <c r="A124" s="53" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B124" s="54" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>50</v>
@@ -21471,7 +21477,7 @@
       <c r="H124" s="49"/>
       <c r="I124" s="49"/>
       <c r="J124" s="27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K124" s="50">
         <v>44139.0</v>
@@ -21484,7 +21490,7 @@
         <v>20</v>
       </c>
       <c r="O124" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P124" s="49"/>
       <c r="Q124" s="49"/>
@@ -21502,16 +21508,16 @@
     </row>
     <row r="125">
       <c r="A125" s="53" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C125" s="51" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>50</v>
@@ -21521,7 +21527,7 @@
       <c r="H125" s="49"/>
       <c r="I125" s="49"/>
       <c r="J125" s="27" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K125" s="50">
         <v>44139.0</v>
@@ -21531,10 +21537,10 @@
         <v>19</v>
       </c>
       <c r="N125" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O125" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P125" s="49"/>
       <c r="Q125" s="49"/>
@@ -21552,16 +21558,16 @@
     </row>
     <row r="126">
       <c r="A126" s="53" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B126" s="54" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D126" s="51" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>50</v>
@@ -21571,7 +21577,7 @@
       <c r="H126" s="49"/>
       <c r="I126" s="49"/>
       <c r="J126" s="27" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K126" s="50">
         <v>44139.0</v>
@@ -21581,10 +21587,10 @@
         <v>19</v>
       </c>
       <c r="N126" s="51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O126" s="52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P126" s="49"/>
       <c r="Q126" s="49"/>
@@ -21602,16 +21608,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>50</v>
@@ -21632,7 +21638,7 @@
         <v>20</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P127" s="12"/>
       <c r="Q127" s="12"/>
@@ -21650,16 +21656,16 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>50</v>
@@ -21680,7 +21686,7 @@
         <v>20</v>
       </c>
       <c r="O128" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P128" s="12"/>
       <c r="Q128" s="12"/>
@@ -21698,16 +21704,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>50</v>
@@ -21717,7 +21723,7 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
       <c r="J129" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K129" s="13">
         <v>43620.0</v>
@@ -21727,10 +21733,10 @@
         <v>19</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -21748,16 +21754,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>50</v>
@@ -21767,7 +21773,7 @@
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
       <c r="J130" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K130" s="13">
         <v>43620.0</v>
@@ -21777,10 +21783,10 @@
         <v>19</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
@@ -21798,28 +21804,28 @@
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
       <c r="J132" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K132" s="13">
         <v>43620.0</v>
@@ -21829,10 +21835,10 @@
         <v>19</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O132" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P132" s="12"/>
       <c r="Q132" s="12"/>
@@ -21850,16 +21856,16 @@
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>50</v>
@@ -21869,7 +21875,7 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
       <c r="J133" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K133" s="13">
         <v>43620.0</v>
@@ -21879,10 +21885,10 @@
         <v>19</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O133" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P133" s="12"/>
       <c r="Q133" s="12"/>
@@ -21900,16 +21906,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>50</v>
@@ -21919,7 +21925,7 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
       <c r="J134" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K134" s="13">
         <v>43620.0</v>
@@ -21929,10 +21935,10 @@
         <v>19</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O134" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P134" s="12"/>
       <c r="Q134" s="12"/>
@@ -21950,16 +21956,16 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>50</v>
@@ -21969,7 +21975,7 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
       <c r="J135" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K135" s="13">
         <v>43620.0</v>
@@ -21979,10 +21985,10 @@
         <v>19</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O135" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P135" s="12"/>
       <c r="Q135" s="12"/>
@@ -22000,16 +22006,16 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C136" s="46" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>50</v>
@@ -22019,7 +22025,7 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
       <c r="J136" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K136" s="13">
         <v>43620.0</v>
@@ -22029,10 +22035,10 @@
         <v>19</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -22050,16 +22056,16 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>50</v>
@@ -22069,7 +22075,7 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
       <c r="J137" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K137" s="13">
         <v>43620.0</v>
@@ -22079,10 +22085,10 @@
         <v>19</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
@@ -22100,28 +22106,28 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
       <c r="J138" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K138" s="13">
         <v>43620.0</v>
@@ -22131,10 +22137,10 @@
         <v>19</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O138" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P138" s="12"/>
       <c r="Q138" s="12"/>
@@ -22152,16 +22158,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>50</v>
@@ -22171,7 +22177,7 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K139" s="13">
         <v>43620.0</v>
@@ -22181,10 +22187,10 @@
         <v>19</v>
       </c>
       <c r="N139" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O139" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P139" s="12"/>
       <c r="Q139" s="12"/>
@@ -22202,16 +22208,16 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>50</v>
@@ -22221,7 +22227,7 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K140" s="13">
         <v>43620.0</v>
@@ -22231,10 +22237,10 @@
         <v>19</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O140" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P140" s="12"/>
       <c r="Q140" s="12"/>
@@ -22252,16 +22258,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>50</v>
@@ -22271,7 +22277,7 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K141" s="13">
         <v>43620.0</v>
@@ -22283,10 +22289,10 @@
         <v>19</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O141" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P141" s="12"/>
       <c r="Q141" s="12"/>
@@ -22304,16 +22310,16 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>50</v>
@@ -22323,7 +22329,7 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
       <c r="J142" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K142" s="13">
         <v>43620.0</v>
@@ -22333,10 +22339,10 @@
         <v>19</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O142" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P142" s="12"/>
       <c r="Q142" s="12"/>
@@ -22354,16 +22360,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>50</v>
@@ -22373,7 +22379,7 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
       <c r="J143" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K143" s="13">
         <v>43620.0</v>
@@ -22383,10 +22389,10 @@
         <v>19</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O143" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P143" s="12"/>
       <c r="Q143" s="12"/>
@@ -22404,16 +22410,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>50</v>
@@ -22423,7 +22429,7 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
       <c r="J144" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K144" s="13">
         <v>43620.0</v>
@@ -22433,10 +22439,10 @@
         <v>19</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O144" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
@@ -22454,16 +22460,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>50</v>
@@ -22473,7 +22479,7 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
       <c r="J145" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K145" s="13">
         <v>43620.0</v>
@@ -22483,10 +22489,10 @@
         <v>19</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P145" s="12"/>
       <c r="Q145" s="12"/>
@@ -22504,16 +22510,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>50</v>
@@ -22550,16 +22556,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>645</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>643</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>50</v>
@@ -22596,16 +22602,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>50</v>
@@ -22615,7 +22621,7 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
       <c r="J148" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K148" s="13">
         <v>43620.0</v>
@@ -22625,10 +22631,10 @@
         <v>19</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -22646,16 +22652,16 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>50</v>
@@ -22676,7 +22682,7 @@
         <v>20</v>
       </c>
       <c r="O149" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P149" s="12"/>
       <c r="Q149" s="12"/>
@@ -22694,28 +22700,28 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K150" s="13">
         <v>43620.0</v>
@@ -22725,10 +22731,10 @@
         <v>19</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O150" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P150" s="12"/>
       <c r="Q150" s="12"/>
@@ -22746,16 +22752,16 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>50</v>
@@ -22765,7 +22771,7 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
       <c r="J151" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K151" s="13">
         <v>43620.0</v>
@@ -22775,10 +22781,10 @@
         <v>19</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O151" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P151" s="12"/>
       <c r="Q151" s="12"/>
@@ -22796,16 +22802,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>50</v>
@@ -22815,7 +22821,7 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
       <c r="J152" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K152" s="13">
         <v>43620.0</v>
@@ -22825,10 +22831,10 @@
         <v>19</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O152" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P152" s="12"/>
       <c r="Q152" s="12"/>
@@ -22846,16 +22852,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>50</v>
@@ -22865,7 +22871,7 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
       <c r="J153" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K153" s="13">
         <v>43620.0</v>
@@ -22875,10 +22881,10 @@
         <v>19</v>
       </c>
       <c r="N153" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O153" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
@@ -22896,16 +22902,16 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>50</v>
@@ -22926,7 +22932,7 @@
         <v>20</v>
       </c>
       <c r="O154" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P154" s="12"/>
       <c r="Q154" s="12"/>
@@ -22944,16 +22950,16 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>50</v>
@@ -22963,7 +22969,7 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
       <c r="J155" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K155" s="13">
         <v>43620.0</v>
@@ -22973,10 +22979,10 @@
         <v>19</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O155" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P155" s="12"/>
       <c r="Q155" s="12"/>
@@ -22994,16 +23000,16 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>50</v>
@@ -23013,7 +23019,7 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
       <c r="J156" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K156" s="13">
         <v>43620.0</v>
@@ -23023,10 +23029,10 @@
         <v>19</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -23044,16 +23050,16 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>50</v>
@@ -23063,7 +23069,7 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K157" s="13">
         <v>43620.0</v>
@@ -23073,10 +23079,10 @@
         <v>19</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
@@ -23094,16 +23100,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>50</v>
@@ -23113,7 +23119,7 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
       <c r="J158" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K158" s="13">
         <v>43620.0</v>
@@ -23123,10 +23129,10 @@
         <v>19</v>
       </c>
       <c r="N158" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O158" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
@@ -23144,16 +23150,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>50</v>
@@ -23163,7 +23169,7 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
       <c r="J159" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K159" s="13">
         <v>43620.0</v>
@@ -23173,10 +23179,10 @@
         <v>19</v>
       </c>
       <c r="N159" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
@@ -23194,16 +23200,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>50</v>
@@ -23213,7 +23219,7 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
       <c r="J160" s="16" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K160" s="13">
         <v>43795.0</v>
@@ -23223,10 +23229,10 @@
         <v>19</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -23244,16 +23250,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>50</v>
@@ -23263,7 +23269,7 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
       <c r="J161" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K161" s="13">
         <v>43620.0</v>
@@ -23273,10 +23279,10 @@
         <v>19</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -23294,16 +23300,16 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>50</v>
@@ -23313,7 +23319,7 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K162" s="13">
         <v>43620.0</v>
@@ -23323,10 +23329,10 @@
         <v>19</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O162" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P162" s="12"/>
       <c r="Q162" s="12"/>
@@ -23344,16 +23350,16 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>50</v>
@@ -23363,7 +23369,7 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
       <c r="J163" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K163" s="13">
         <v>43620.0</v>
@@ -23373,10 +23379,10 @@
         <v>19</v>
       </c>
       <c r="N163" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O163" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P163" s="12"/>
       <c r="Q163" s="12"/>
@@ -23394,16 +23400,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>50</v>
@@ -23413,7 +23419,7 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
       <c r="J164" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K164" s="13">
         <v>43620.0</v>
@@ -23423,10 +23429,10 @@
         <v>19</v>
       </c>
       <c r="N164" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O164" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
@@ -23444,28 +23450,28 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
       <c r="J165" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K165" s="13">
         <v>43620.0</v>
@@ -23475,10 +23481,10 @@
         <v>19</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O165" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P165" s="12"/>
       <c r="Q165" s="12"/>
@@ -23496,16 +23502,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>50</v>
@@ -23526,7 +23532,7 @@
         <v>20</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -23544,16 +23550,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>50</v>
@@ -23563,7 +23569,7 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
       <c r="J167" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K167" s="13">
         <v>43620.0</v>
@@ -23573,10 +23579,10 @@
         <v>19</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -23594,16 +23600,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>50</v>
@@ -23613,7 +23619,7 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
       <c r="J168" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K168" s="13">
         <v>43620.0</v>
@@ -23623,10 +23629,10 @@
         <v>19</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O168" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P168" s="12"/>
       <c r="Q168" s="12"/>
@@ -23644,16 +23650,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>50</v>
@@ -23663,7 +23669,7 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K169" s="13">
         <v>43620.0</v>
@@ -23673,10 +23679,10 @@
         <v>19</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O169" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P169" s="12"/>
       <c r="Q169" s="12"/>
@@ -23694,16 +23700,16 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>50</v>
@@ -23713,7 +23719,7 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
       <c r="J170" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K170" s="13">
         <v>43620.0</v>
@@ -23723,10 +23729,10 @@
         <v>19</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O170" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P170" s="12"/>
       <c r="Q170" s="12"/>
@@ -23744,16 +23750,16 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>50</v>
@@ -23763,7 +23769,7 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K171" s="13">
         <v>43620.0</v>
@@ -23773,10 +23779,10 @@
         <v>19</v>
       </c>
       <c r="N171" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O171" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P171" s="12"/>
       <c r="Q171" s="12"/>
@@ -23794,16 +23800,16 @@
     </row>
     <row r="172">
       <c r="A172" s="47" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C172" s="46" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>50</v>
@@ -23813,7 +23819,7 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
       <c r="J172" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K172" s="13">
         <v>43620.0</v>
@@ -23823,10 +23829,10 @@
         <v>19</v>
       </c>
       <c r="N172" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O172" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P172" s="12"/>
       <c r="Q172" s="12"/>
@@ -23844,16 +23850,16 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>50</v>
@@ -23863,7 +23869,7 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
       <c r="J173" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K173" s="13">
         <v>43620.0</v>
@@ -23873,10 +23879,10 @@
         <v>19</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O173" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P173" s="12"/>
       <c r="Q173" s="12"/>
@@ -23894,16 +23900,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>50</v>
@@ -23913,7 +23919,7 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
       <c r="J174" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K174" s="13">
         <v>43620.0</v>
@@ -23923,10 +23929,10 @@
         <v>19</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O174" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P174" s="12"/>
       <c r="Q174" s="12"/>
@@ -23944,16 +23950,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>50</v>
@@ -23974,7 +23980,7 @@
         <v>20</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -23992,16 +23998,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>50</v>
@@ -24011,7 +24017,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
       <c r="J176" s="16" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K176" s="13">
         <v>43795.0</v>
@@ -24021,10 +24027,10 @@
         <v>19</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -24042,28 +24048,28 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
       <c r="J177" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K177" s="13">
         <v>43620.0</v>
@@ -24073,10 +24079,10 @@
         <v>19</v>
       </c>
       <c r="N177" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O177" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P177" s="12"/>
       <c r="Q177" s="12"/>
@@ -24094,16 +24100,16 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C178" s="59" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>50</v>
@@ -24121,10 +24127,10 @@
         <v>19</v>
       </c>
       <c r="N178" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O178" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P178" s="60"/>
       <c r="Q178" s="60"/>
@@ -24142,16 +24148,16 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>50</v>
@@ -24161,7 +24167,7 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
       <c r="J179" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K179" s="13">
         <v>43620.0</v>
@@ -24171,10 +24177,10 @@
         <v>19</v>
       </c>
       <c r="N179" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O179" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P179" s="12"/>
       <c r="Q179" s="12"/>
@@ -24192,16 +24198,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>50</v>
@@ -24222,7 +24228,7 @@
         <v>20</v>
       </c>
       <c r="O180" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P180" s="12"/>
       <c r="Q180" s="12"/>
@@ -24240,16 +24246,16 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B181" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="D181" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>743</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>740</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>50</v>
@@ -24270,7 +24276,7 @@
         <v>20</v>
       </c>
       <c r="O181" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P181" s="12"/>
       <c r="Q181" s="12"/>
@@ -24288,16 +24294,16 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>50</v>
@@ -24318,7 +24324,7 @@
         <v>20</v>
       </c>
       <c r="O182" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P182" s="12"/>
       <c r="Q182" s="12"/>
@@ -24336,16 +24342,16 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>50</v>
@@ -24366,7 +24372,7 @@
         <v>20</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -24384,16 +24390,16 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>50</v>
@@ -24414,7 +24420,7 @@
         <v>20</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -24432,16 +24438,16 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>50</v>
@@ -24451,7 +24457,7 @@
       <c r="H185" s="12"/>
       <c r="I185" s="29"/>
       <c r="J185" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K185" s="13">
         <v>43620.0</v>
@@ -24461,10 +24467,10 @@
         <v>19</v>
       </c>
       <c r="N185" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O185" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
@@ -24482,16 +24488,16 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>50</v>
@@ -24501,7 +24507,7 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K186" s="13">
         <v>43620.0</v>
@@ -24511,10 +24517,10 @@
         <v>19</v>
       </c>
       <c r="N186" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
@@ -24532,16 +24538,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>50</v>
@@ -24551,7 +24557,7 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
       <c r="J187" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K187" s="13">
         <v>43620.0</v>
@@ -24561,10 +24567,10 @@
         <v>19</v>
       </c>
       <c r="N187" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O187" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
@@ -24582,16 +24588,16 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>50</v>
@@ -24612,7 +24618,7 @@
         <v>20</v>
       </c>
       <c r="O188" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
@@ -24630,16 +24636,16 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>50</v>
@@ -24649,7 +24655,7 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
       <c r="J189" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K189" s="13">
         <v>43620.0</v>
@@ -24659,10 +24665,10 @@
         <v>19</v>
       </c>
       <c r="N189" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O189" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
@@ -24684,16 +24690,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>50</v>
@@ -24730,16 +24736,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C192" s="61" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D192" s="31" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>50</v>
@@ -24776,16 +24782,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C193" s="61" t="s">
+        <v>776</v>
+      </c>
+      <c r="D193" s="31" t="s">
         <v>774</v>
-      </c>
-      <c r="D193" s="31" t="s">
-        <v>772</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>50</v>
@@ -24822,16 +24828,16 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>50</v>
@@ -24868,16 +24874,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>50</v>
@@ -24918,23 +24924,23 @@
     </row>
     <row r="197">
       <c r="A197" s="9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B197" s="24"/>
       <c r="E197" s="44"/>
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>50</v>
@@ -24944,7 +24950,7 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
       <c r="J198" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K198" s="13">
         <v>43620.0</v>
@@ -24954,10 +24960,10 @@
         <v>19</v>
       </c>
       <c r="N198" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O198" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P198" s="12"/>
       <c r="Q198" s="12"/>
@@ -24975,16 +24981,16 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>50</v>
@@ -24994,7 +25000,7 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K199" s="13">
         <v>43620.0</v>
@@ -25004,10 +25010,10 @@
         <v>19</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O199" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
@@ -25025,16 +25031,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>50</v>
@@ -25044,7 +25050,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K200" s="13">
         <v>43620.0</v>
@@ -25054,10 +25060,10 @@
         <v>19</v>
       </c>
       <c r="N200" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O200" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P200" s="12"/>
       <c r="Q200" s="12"/>
@@ -25075,16 +25081,16 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>50</v>
@@ -25094,7 +25100,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K201" s="13">
         <v>43620.0</v>
@@ -25104,10 +25110,10 @@
         <v>19</v>
       </c>
       <c r="N201" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O201" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P201" s="12"/>
       <c r="Q201" s="12"/>
@@ -25125,28 +25131,28 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F202" s="12"/>
       <c r="G202" s="12" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K202" s="13">
         <v>43620.0</v>
@@ -25156,10 +25162,10 @@
         <v>19</v>
       </c>
       <c r="N202" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O202" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P202" s="12"/>
       <c r="Q202" s="12"/>
@@ -25177,16 +25183,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="D203" s="10" t="s">
         <v>803</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>801</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>50</v>
@@ -25207,7 +25213,7 @@
         <v>20</v>
       </c>
       <c r="O203" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P203" s="12"/>
       <c r="Q203" s="12"/>
@@ -25225,16 +25231,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>50</v>
@@ -25244,7 +25250,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
       <c r="J204" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K204" s="13">
         <v>43620.0</v>
@@ -25254,10 +25260,10 @@
         <v>19</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -25275,16 +25281,16 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>50</v>
@@ -25294,7 +25300,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
       <c r="J205" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K205" s="13">
         <v>43620.0</v>
@@ -25304,10 +25310,10 @@
         <v>19</v>
       </c>
       <c r="N205" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O205" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
@@ -25325,16 +25331,16 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>50</v>
@@ -25344,7 +25350,7 @@
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
       <c r="J206" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K206" s="13">
         <v>43620.0</v>
@@ -25354,10 +25360,10 @@
         <v>19</v>
       </c>
       <c r="N206" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O206" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P206" s="12"/>
       <c r="Q206" s="12"/>
@@ -25375,16 +25381,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>50</v>
@@ -25394,7 +25400,7 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
       <c r="J207" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K207" s="13">
         <v>43620.0</v>
@@ -25404,10 +25410,10 @@
         <v>19</v>
       </c>
       <c r="N207" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -25425,16 +25431,16 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>50</v>
@@ -25455,7 +25461,7 @@
         <v>20</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -25485,16 +25491,16 @@
     </row>
     <row r="210">
       <c r="A210" s="10" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>50</v>
@@ -25504,7 +25510,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
       <c r="J210" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K210" s="13">
         <v>43620.0</v>
@@ -25516,10 +25522,10 @@
         <v>19</v>
       </c>
       <c r="N210" s="10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="O210" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P210" s="12"/>
       <c r="Q210" s="12"/>
@@ -25537,16 +25543,16 @@
     </row>
     <row r="211">
       <c r="A211" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B211" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C211" s="36" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D211" s="36" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E211" s="36" t="s">
         <v>50</v>
@@ -25560,7 +25566,7 @@
       <c r="L211" s="38"/>
       <c r="M211" s="36"/>
       <c r="N211" s="36" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O211" s="38"/>
       <c r="P211" s="38"/>
@@ -25579,16 +25585,16 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="D212" s="10" t="s">
         <v>827</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>825</v>
       </c>
       <c r="E212" s="10" t="s">
         <v>50</v>
@@ -25606,7 +25612,7 @@
         <v>19</v>
       </c>
       <c r="N212" s="10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
@@ -25625,16 +25631,16 @@
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E213" s="10" t="s">
         <v>50</v>
@@ -25652,7 +25658,7 @@
         <v>19</v>
       </c>
       <c r="N213" s="10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O213" s="12"/>
       <c r="P213" s="12"/>
@@ -25671,16 +25677,16 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E214" s="10" t="s">
         <v>50</v>
@@ -25698,7 +25704,7 @@
         <v>19</v>
       </c>
       <c r="N214" s="10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O214" s="12"/>
       <c r="P214" s="12"/>
@@ -25717,16 +25723,16 @@
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E215" s="10" t="s">
         <v>50</v>
@@ -25744,7 +25750,7 @@
         <v>19</v>
       </c>
       <c r="N215" s="10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O215" s="12"/>
       <c r="P215" s="12"/>
@@ -25763,16 +25769,16 @@
     </row>
     <row r="216">
       <c r="A216" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E216" s="10" t="s">
         <v>50</v>
@@ -25790,7 +25796,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
@@ -25809,16 +25815,16 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E217" s="10" t="s">
         <v>50</v>
@@ -25836,7 +25842,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O217" s="12"/>
       <c r="P217" s="12"/>
@@ -25855,16 +25861,16 @@
     </row>
     <row r="218">
       <c r="A218" s="10" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E218" s="10" t="s">
         <v>50</v>
@@ -25874,7 +25880,7 @@
       <c r="H218" s="12"/>
       <c r="I218" s="12"/>
       <c r="J218" s="30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K218" s="13">
         <v>43620.0</v>
@@ -25886,10 +25892,10 @@
         <v>19</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="O218" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P218" s="12"/>
       <c r="Q218" s="12"/>
@@ -28785,7 +28791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
@@ -28803,110 +28809,110 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J3" s="19"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="13"/>
